--- a/Prep/Amazon/LeaderShipPrinciples.xlsx
+++ b/Prep/Amazon/LeaderShipPrinciples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Items\DSA\Algorithms\Prep\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6AC6E5-B6D1-423D-BF9B-0DAFFFD54536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE0B59-6E77-4005-B6AA-3831D363C190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Obsession" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Have Back Bone; Disagreement &amp; Commitment</t>
   </si>
@@ -188,6 +188,50 @@
   </si>
   <si>
     <t>Leaders focus on the key inputs for their business and deliver them with the right quality and in a timely fashion. Despite setbacks, they rise to the occasion and never settle.</t>
+  </si>
+  <si>
+    <t>Microsoft was using Tenant Data store for Office 365 Admin Center Webapi's.
+My Team Lead picked up that work item and it was time sensitive task and
+Microsoft was retiring Tenant Data store in next two months. After a month my TeamLead
+had to leave the project as he got another Full time project. I have taken this task 
+to get it complete in a month based upon intial analysis made by my Team Lead.
+Based upon intial analysis I came know that I have to migrate from Tenant Data store to
+Azure Cosmos DB. Make API code changes to use Azure Cosmos DB and Remove Tenant Data store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I created some of the below steps:
+step1: Create a POC to get connect to azure cosmos db collection and perform
+       Update, Read/Write and Delete operations.
+step2: Migrate existing data from TDS to AZCDB
+step3: Make API changes to use Azure Cosmos DB instead of Tenant Data store.
+step4: Apply POC implementation on API.
+step5: Update unit tests and integration tests.
+Step 6: Demo and Get approval.
+step 7: Deploy it Production and make it available for 10% users using A/B test methods.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action:
+1. At that time I was new to perform CRUD operations on Azure Cosmos DB.
+   I created a POC to perform READ/Write opearation on Azure Cosmos DB test collection.
+   I used Azure SDK to get connect to Azure Cosmos DB collection and Used Azure Libraries to
+   Insert, Update, Delete to Azure Cosmos DB collection.
+   I demoed it to the Team and Team accepted my POC. 
+2. Migrate the data from Tenant Data store(Key Value pair data) to Azure Cosmos DB.
+3. Web api's using Tenant data store to  read/write/update/delete the data. Made
+   api code changes to read/write from Tenant data store to Azure Cosmos DB.
+4. Based upon POC, I applied that implementation to actual API's.
+5. Deployed the code to Test environments to give a demo Tenant Data Store vs Azure Cosmos DB.
+5. Gave a demo of my code changes and team was happy with my code changes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result:
+The Api ran successfully as it ran on Tenant data store, after migrating to Azure Cosmos DB.
+I deployed the old code to Test01 server and new code to Test02 environments. Compared the results
+on both servers and demo the same to the team. Team was happy with the implementation. Team approved my changes to get it deployed
+to production to get it released to 10% of the website users and monitor for few days. After monitoring,
+No issues were reported and then made it available to 100% users.  </t>
   </si>
 </sst>
 </file>
@@ -622,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EC0F6A-74B4-4826-99DF-2CB00802D06B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -908,17 +952,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82DE0C8-7F23-4B3F-8DE8-448439008445}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -947,6 +991,20 @@
       </c>
       <c r="D3" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Prep/Amazon/LeaderShipPrinciples.xlsx
+++ b/Prep/Amazon/LeaderShipPrinciples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work Items\DSA\Algorithms\Prep\Amazon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Algorithms\Prep\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE0B59-6E77-4005-B6AA-3831D363C190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF247F1C-EE26-4977-A54E-1DA7A86C6B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Obsession" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Have Back Bone; Disagreement &amp; Commitment</t>
   </si>
@@ -232,6 +232,54 @@
 on both servers and demo the same to the team. Team was happy with the implementation. Team approved my changes to get it deployed
 to production to get it released to 10% of the website users and monitor for few days. After monitoring,
 No issues were reported and then made it available to 100% users.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  I started my career as an Asp.Net Web developer. I used Asp.Net, Html, css and c# to develop the web application
+feature development.  While I started looking for job change, found that there was a huge demand for javascript frameworks like angularJS.
+I started my prep towards angularjs and was able to get a job on angularJs. I applied this learning at some of clients that I worked.
+I aplied these learning's at National Gypsum, Kantar Media and Microsoft.
+</t>
+  </si>
+  <si>
+    <t>Learn angular JS and find a job to apply the new learnings</t>
+  </si>
+  <si>
+    <t>Applied my learned knowledge and create applications that target angularJS at National Gypsum, Kantar Media and Microsoft.</t>
+  </si>
+  <si>
+    <t>Developed applications from scratch and applied knowledge on existing applications as well.</t>
+  </si>
+  <si>
+    <t>Situation:
+There was requirement from manager, and it is new requirement to the team.
+Where the team need to reasearch on embedding power bi reports to our web application.</t>
+  </si>
+  <si>
+    <t>1. Research on embedding power bi reports to web application.
+2. Consume power bi api to get the list of reports per organization.
+3. Implement Authentication to get access to power bi reports based upon 
+   website clientId and client secret.
+4. Write code to integrate the JSON response with report Id's and report urls and
+   embed them to an iframe using databinding on the UI.
+5. Develop a POC and Demo.
+6. On Demo approval, integrated the changes to our web application.
+7. Deploy changes to test environment and after approval from test team deploy code to Production.</t>
+  </si>
+  <si>
+    <t>1. Developed a POC on a Asp.Net MVC Web application.
+2. Using client Id and client secret that we get when registering an app with Azure.
+   Used clientId and client secret to generate an authtoken and used the token to
+   get authenticated to power bi restful api. Pulled the reports based upon organisation
+   and integrated them to MVC web application.
+3. Showed the list of reports on the UI and when a reportId clicked it will show
+   an embedded report.
+4. Demoed this feature implementation to the team and management. They were very happy and
+   asked me to integrate it into actual web site. I did those changes and deployed to test environments.
+   Upon successful testing, worked to deploy the code production.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Result is success with integrated power bi reports to a web application and
+   some internal were also interested in this implementation and they took KT from  me.</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82DE0C8-7F23-4B3F-8DE8-448439008445}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1014,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F207D0D-E09D-4D66-8C9A-057322480EAF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,6 +1103,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1064,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126F1238-18CD-4F22-BB5B-51D50BC6C67B}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1110,17 +1172,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC38FCF-4571-4676-8A21-161EB66D2481}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="1"/>
     <col min="2" max="2" width="42.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
     <col min="4" max="4" width="35.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1149,6 +1211,20 @@
       </c>
       <c r="D3" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Prep/Amazon/LeaderShipPrinciples.xlsx
+++ b/Prep/Amazon/LeaderShipPrinciples.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Algorithms\Prep\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF247F1C-EE26-4977-A54E-1DA7A86C6B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041D6F9-0170-4F38-87A1-46380B25B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer Obsession" sheetId="1" r:id="rId1"/>
+    <sheet name="Deliver Results" sheetId="13" r:id="rId1"/>
     <sheet name="Ownership" sheetId="2" r:id="rId2"/>
-    <sheet name="Invent &amp; Simplify" sheetId="3" r:id="rId3"/>
-    <sheet name="Leader are right alot" sheetId="4" r:id="rId4"/>
-    <sheet name="Be Curious to Learn" sheetId="5" r:id="rId5"/>
-    <sheet name="Hire &amp; Develop the Best" sheetId="6" r:id="rId6"/>
-    <sheet name="Insist on Highest Standars" sheetId="7" r:id="rId7"/>
-    <sheet name="Think Big" sheetId="14" r:id="rId8"/>
-    <sheet name="Bias for Action" sheetId="11" r:id="rId9"/>
-    <sheet name="Frugality" sheetId="9" r:id="rId10"/>
-    <sheet name="Earn Trust" sheetId="10" r:id="rId11"/>
-    <sheet name="Deep Dive" sheetId="8" r:id="rId12"/>
-    <sheet name="Have Back Bone; Disagreement &amp; " sheetId="12" r:id="rId13"/>
-    <sheet name="Deliver Results" sheetId="13" r:id="rId14"/>
+    <sheet name="Customer Obsession" sheetId="1" r:id="rId3"/>
+    <sheet name="Insist on Highest Standars" sheetId="7" r:id="rId4"/>
+    <sheet name="Earn Trust" sheetId="10" r:id="rId5"/>
+    <sheet name="Have Back Bone; Disagreement &amp; " sheetId="12" r:id="rId6"/>
+    <sheet name="Deep Dive" sheetId="8" r:id="rId7"/>
+    <sheet name="Be Curious to Learn" sheetId="5" r:id="rId8"/>
+    <sheet name="Invent &amp; Simplify" sheetId="3" r:id="rId9"/>
+    <sheet name="Leader are right alot" sheetId="4" r:id="rId10"/>
+    <sheet name="Hire &amp; Develop the Best" sheetId="6" r:id="rId11"/>
+    <sheet name="Think Big" sheetId="14" r:id="rId12"/>
+    <sheet name="Bias for Action" sheetId="11" r:id="rId13"/>
+    <sheet name="Frugality" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="323">
   <si>
     <t>Have Back Bone; Disagreement &amp; Commitment</t>
   </si>
@@ -281,12 +281,1349 @@
     <t xml:space="preserve">   Result is success with integrated power bi reports to a web application and
    some internal were also interested in this implementation and they took KT from  me.</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+Tell me about a time you wouldn’t compromise on achieving a great outcome when others felt something was already good enough. What was the situation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+What measures have you personally put in place to ensure performance improvement targets and standards are achieved?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Describe the most significant, continuous improvement project that you’ve led. What was the catalyst for this change and how did you go about it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Give me an example of a goal you’ve had where you wish you had done better. What was the goal and how could you have improved on it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Tell me about a time when you worked to improve the quality of a product / service / solution that was already getting good customer feedback? Why did you think it needed more improvement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Give an example where you refused to compromise your standards around quality/customer service, etc. Why did you feel so strongly about the situation? What were the consequences? The result?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tell me about a time when you’ve been unsatisfied with the status quo. What did you do to change it? Were you successful?             </t>
+  </si>
+  <si>
+    <t>When I took over the e-commerce part of the website I learned that the experience related to returning merchandise was one of the worst experiences on the site. It was difficult to navigate, and when I asked why it was so bad the answer I got from senior management alarmed me. They didn’t want the experience to be easy because they didn’t want people to return things. This felt intuitively wrong to me but I knew I needed the numbers to prove it. I began collecting data relating to return customers and how the return had an impact on how how likely they were to return. After a lot of digging we learned that if a customer had a good return experience they were more likely to buy from us in the future. We set off to create the most frictionless return experience possible and then we measured the impact of the customer to return and what they were likely to purchase. As we made changes to the return experience, we carefully measured the impact.</t>
+  </si>
+  <si>
+    <t>In my last job, when I joined the solutions architect team, my main goal was to ensure that our enterprise clients integrated seamlessly with the solutions we were providing. I became obsessed with the onboarding with these customers, and one metric in particular, which was the time the client signed contract to the time they first used the services. To me this was the metric that mattered the most, but we weren’t paying much attention to it. I knew that if we showed the value that our service provided sooner, they would be more likely to stay with us over the long term. We measured and then optimized processes based on what we found. For a good while in that role, nearly every measurement of success I created for myself and my team rolled up onto the larger onboarding metric. We had a set of metrics that we aspired to improve that ultimately rolled up to the onboarding one. As a result of these efforts over the course of a year, and ruthlessly optimizing our processes, we cut the average time of onboarding down by 50%.</t>
+  </si>
+  <si>
+    <t>Question: Tell me about a time you not only met your goals, but exceeded expectations.</t>
+  </si>
+  <si>
+    <t>Answer given by a Senior Technical Account Manager</t>
+  </si>
+  <si>
+    <t>“There was one time when I was working as a consultant for USAF. On one of the daily standup calls, the client (USAF Project manager) mentioned that most of his other applications do smart card authentication. He wanted to add that feature to the Oracle Application I was working on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, even though this wasn’t a formal request from him I ran with it. I started a conversation with Oracle on understanding the products we could leverage to get job done. I set up meetings with their product teams, got to know the product, discussed our requirements, and decided that we could come up with a solution. I implemented that solution in our development environment. I had the proof of concept done before the next sprint started in four weeks. </t>
+  </si>
+  <si>
+    <t>I just about knocked the project manager’s socks off when I showed him that POC! The feature wasn’t technically part of the project plan, and he had no idea I would try to add it. He was really pleased.”</t>
+  </si>
+  <si>
+    <t>I like this story because the account manager says a lot about himself in a succinct and relatable way. He answers the question exactly and shows he goes above and beyond when he “Drives Results.” It comes natural to him, and he takes pride in it. (And yes, he got the job!)</t>
+  </si>
+  <si>
+    <t>Question: Describe a situation where you had to face a particularly challenging situation while working on a project and what you did to overcome it.</t>
+  </si>
+  <si>
+    <t>Answer given by an Agile Coach</t>
+  </si>
+  <si>
+    <t>“Our company recently migrated from SDLC to Agile. It was a difficult transition due to the mindset of my peers. They were used to delivering projects in a waterfall methodology for such a long time it was difficult for them to completely accept Agile principles.</t>
+  </si>
+  <si>
+    <t>I had already delivered a large project with Agile using Jira as the tool while working very closely with our business partners and analysts. I could see my manager was struggling with bringing everyone completely on board. So I took the initiative of learning Rally and setting up all my peers with workspace in Rally. I also created a guide with instructions on using various functionality in Rally for them to set up their teams and how to get started with Agile ceremonies. My manager was appreciative of my efforts.</t>
+  </si>
+  <si>
+    <t>Not every organization/team was going to go Agile at the same time, so we had a large integration project this year where the team was still waterfall whereas ours was Agile. This project was an ideal candidate to form a vertical stack Agile team and collaborate throughout the year to deliver. I was able to present a case to senior management of their organization to form a cross-organizational Agile team. Today we have a cross functional and cross org Agile team that has a set cadence.”</t>
+  </si>
+  <si>
+    <t>This story is about one of the most challenging parts of any business – culture change. When choosing your own stories, try to think of challenging situations that the interviewer may have experience him or herself. To “Drive Results,” the Agile Coach took control of the situation by learning new tools and methodologies, and then introduced those concepts to his immediate team. He then used what he learned to drive change in other parts of the organization.</t>
+  </si>
+  <si>
+    <t>1. Give me two examples of when you did more than what was required in any job experience.</t>
+  </si>
+  <si>
+    <t>Pick a project that had a goal and discuss how you took ownership. Explain how you went beyond what was required from you. Follow the STAR method while answering and add enough emphasis on the outcome.  </t>
+  </si>
+  <si>
+    <t>Sample answer:</t>
+  </si>
+  <si>
+    <t>In my previous role, the biggest challenge that I faced on a project was managing my team members efficiently. For a couple of months, I implemented various initiatives, such as holding weekly and daily meetings, setting measurable targets for each individual, and mentoring those who needed my help. This helped my team to exceed the expectations of the customer.</t>
+  </si>
+  <si>
+    <t>2. Tell me about something that you learned recently in your role.</t>
+  </si>
+  <si>
+    <t>Your answer should be able to tell the interviewer that you are keen to learn. Whether it is learning a new skill or finding opportunities in the face of a problem, you don’t shy away from stepping out of your comfort zone. </t>
+  </si>
+  <si>
+    <t>It’s also important to share a true story without embellishments and back it up with facts. The last thing you want is to lie during an interview and get caught.</t>
+  </si>
+  <si>
+    <t>My team manager told me that I need to brush up on my communication skills to be more effective during meetings with our design team. I took an online course and also reached out to an executive coach. I worked with my coach and supplemented the sessions with my learnings from the course. I was able to spot my weaknesses and work on my skills. During the next review, my team manager agreed that my communication style had improved, and I successfully led meetings.</t>
+  </si>
+  <si>
+    <t>3. Tell me about a time you had to quickly adjust your work priorities to meet changing demands?</t>
+  </si>
+  <si>
+    <t>This question is to assess whether the experience taught you something that you can implement in the future when priorities change without notice. </t>
+  </si>
+  <si>
+    <t>I was working on designing software for the hospitality industry. There were a lot of live server updates to be carried out. The server was also facing a lot of issues as we were using new technology. This resulted in my priorities changing — I had to continuously work with my colleagues on different caching mechanisms while managing other conflicting deadlines. This experience taught me how I should prioritize while working in a fast-paced environment and be more agile to keep delivering results. </t>
+  </si>
+  <si>
+    <t>4. Describe a time you took the lead on a project and went above and beyond</t>
+  </si>
+  <si>
+    <t>Try to think of examples that show you can handle challenges arising outside your focus area. </t>
+  </si>
+  <si>
+    <t>During a recent project, the customer wanted us to add a new feature to the product. The request was beyond the project’s scope, and we hadn’t accounted for extra time in our schedule to design it. However, my supervisors were clear that we couldn’t refuse the request and wanted us to rearrange the schedule. While this resulted in an extra workload for me, and I had to work a couple of hours on several weekends, I took up the challenge. Finally, we completed the project with the new feature, and the client was delighted with the output.  </t>
+  </si>
+  <si>
+    <t>This question aims to understand how well you work within a team, especially when you are in charge. How you react in stressful situations and motivate others is a reasonably good indicator of your performance. </t>
+  </si>
+  <si>
+    <t>A member of my team was unable to deliver as expected. I decided to assume the role of a mentor and make a conscious effort to help him thrive in the workplace. I would stop by at his desk for a chat, compliment him on things he did perfectly, and provide constructive feedback. After a couple of months, I noticed that his behavior changed, and he was able to contribute a lot more to the team.  </t>
+  </si>
+  <si>
+    <t>6. Tell me a challenge you had where the best way forward was not clear. How did you decide what to do?</t>
+  </si>
+  <si>
+    <t>When you answer such a question, you want to show the interviewer that you are not flustered when the solution is not clear, and your opinions are challenged. You are willing to work toward the most efficient solution to overcome the problem while managing conflicts and interpersonal relationships. </t>
+  </si>
+  <si>
+    <t>At my previous company, I worked on a project for almost two weeks when the client completely overhauled the requirements. At the same time, my supervisor on the project also left the company. I did not have a clear direction about how to move ahead with the project. To face the challenge head-on, I scheduled a call with the representative from the client’s company and discussed our options. Ultimately, I completed the project with the revised requirements, and the client was happy with the work. </t>
+  </si>
+  <si>
+    <t>7. Give me an example of a time when you failed.</t>
+  </si>
+  <si>
+    <t>Failing at something is not a sign of weakness. The hiring managers are keen to know whether you learn from your failures and move forward or remain stuck. </t>
+  </si>
+  <si>
+    <t>8. Give me an example of a time when you showed initiative.</t>
+  </si>
+  <si>
+    <t>Hiring managers are looking for self-starters. They want to hire someone who can consistently deliver good results with minimal supervision. Answering such a question is an excellent way to show that you can work independently.</t>
+  </si>
+  <si>
+    <t>Sample answer: </t>
+  </si>
+  <si>
+    <t>At my previous company, keeping track of all the past projects used to be a challenge for the team. Even though we had a cloud-based system, I felt that accessibility was always an issue. I took it upon myself to create a project management system that will make our lives easier. My team members were the happiest of the lot.</t>
+  </si>
+  <si>
+    <t>9. Tell me about a time when you delegated a project effectively.</t>
+  </si>
+  <si>
+    <t>The interviewer wants to know that you delegate tasks instead of doing everything on your own. This also shows that you have the ability to lead a team and assign tasks to various team members based on their skillset. </t>
+  </si>
+  <si>
+    <t>In my current role, I had to form a team to work on a new project. I hand-picked the team members according to their strengths as I knew that some of them had previous experience working on a similar project. Once the team was in place, we had an initial meeting to explain what the client expects from us to my team members. I also reassured them I have faith in their abilities, and I am confident they will deliver as expected.</t>
+  </si>
+  <si>
+    <t>Tips for Cracking Amazon Dive Deep Interview Questions</t>
+  </si>
+  <si>
+    <t>No matter how many sample questions you practice, you might end up facing a question you’ve never seen before. Therefore, it’s important to develop an approach toward answering these questions. The following tips will come in handy:</t>
+  </si>
+  <si>
+    <t>Learn about Amazon. Find out what their values and principles are and include examples that showcase those values in your answers.</t>
+  </si>
+  <si>
+    <t>How Amazon explains the “Have Backbone” principle:</t>
+  </si>
+  <si>
+    <t>What does the “Have Backbone” principle mean?</t>
+  </si>
+  <si>
+    <t>What does the phrase “to have backbone” mean? It’s an English idiom that means to have strength, particularly in the face of adversity. If I “have backbone,” it means I will stand up for my ideas. Do you fight for your ideas or do you give up on them if someone challenges you?</t>
+  </si>
+  <si>
+    <t>What if you fight for you idea (meaning you "disagree" with someone) and don't win - what do you do then? Do you support the person who did win ("commit" to their idea) or do you try to work against them because your idea didn't win?</t>
+  </si>
+  <si>
+    <t>If you haven’t read my post on “Are Right, A Lot” you should read that, because that principle includes how you manage conflict, which is related to the “Have Backbone” principle. Both principles deal with interpersonal relationships, in particular conflicts that arise between two people (or one person and a group of people). </t>
+  </si>
+  <si>
+    <t>How to answer the “Have Backbone” interview questions</t>
+  </si>
+  <si>
+    <t>You don’t have to stand up for your ideas unless the culture you’re in is an aggressive one. I don’t like competitiveness or aggression (especially directed at me!), so this type of culture and even the idea of having to fight for my ideas upsets me. If an aggressive type of culture intimidates you, give extra attention to your preparation for interview questions related to conflict. If you’re unable to answer the questions directly, you may come across as someone who lacks the backbone to work in a competitive environment. If you want the job, you’ll need to hide your discomfort with aggression or at least show it won’t stand in the way of your leadership. On the other hand, if you’re someone who thrives in competitive environments, be prepared to demonstrate that you can manage conflict calmly and rationally, that you can convince others with data, not by yelling or being unnecessarily aggressive.</t>
+  </si>
+  <si>
+    <t>If you’re in an Amazon interview and you’re asked how you’ve dealt with workplace conflict in the past, consider the following approach:</t>
+  </si>
+  <si>
+    <t>In these “Backbone” stories, focus on the disagreement between you and another person (or persons). Your goal should be to demonstrate how you managed the conflict itself, so don’t fast forward over it. I won’t usually advise you to make your stories “dramatic,” but these “Backbone” stories can be inherently dramatic, and that’s okay. I’ve found that my clients sometimes want to say very little about the actual disagreement and are eager to rush to the solution, which is a mistake. Dwell more on the details of the conflict.</t>
+  </si>
+  <si>
+    <t>Interview Questions Related to the “Have Backbone” Principle</t>
+  </si>
+  <si>
+    <t>If your interviewer asks about this leadership principle, she or he might ask one of the following questions:</t>
+  </si>
+  <si>
+    <t>Describe a situation where other members of your team didn’t agree with your ideas. What did you do?</t>
+  </si>
+  <si>
+    <t>Tell me about a situation where you had a conflict with someone on your team. What was it about? What did you do? How did they react? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you did not accept the status quo.</t>
+  </si>
+  <si>
+    <t>Tell me about an unpopular decision of yours.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to step up and disagree with a team member’s approach.</t>
+  </si>
+  <si>
+    <t>If your direct manager was instructing you to do something you disagreed with, how would you handle it?</t>
+  </si>
+  <si>
+    <t>Describe a situation where you thought you were right, but your peers or supervisor did not agree with you. How did you convince them that you were right? How did you react? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Those are the types of questions associated with this principle, and below are some from “Are Right.” You can see how they are really the same questions. Let’s review some of the questions from the “Are Right” principle:</t>
+  </si>
+  <si>
+    <t>Tell me about a time you disagreed with a colleague. What is the process you used to work it out?</t>
+  </si>
+  <si>
+    <t>Tell me about a time that you strongly disagreed with your manager on something you deemed to be very important to the business. What was it about and how did you handle it?</t>
+  </si>
+  <si>
+    <t>Tell me about a time where someone openly challenged you. How did you handle this feedback?</t>
+  </si>
+  <si>
+    <t>Give me an example of when you took an unpopular stance in a meeting with peers and your leader and you were the outlier. What was it, why did you feel strongly about it, and what did you do?</t>
+  </si>
+  <si>
+    <t>When do you decide to go along with the group decision even if you disagree? Give me an example of a time you chose to acquiesce to the group even when you disagreed. Would you make the same decision now?</t>
+  </si>
+  <si>
+    <t>We see that the “Are Right” and “Have Backbone” principles are related. Show your interviewer that your approach to your work results in you being right a lot, and that you have the courage to fight for your ideas.</t>
+  </si>
+  <si>
+    <t>Sample Answers Related to the “Have Backbone” Principle</t>
+  </si>
+  <si>
+    <t>Question: Describe a situation where others you were working with on a project disagreed with your ideas. What did you do?</t>
+  </si>
+  <si>
+    <t>Answer given by an Engineering Manager</t>
+  </si>
+  <si>
+    <t>“When I was leading the engineering team at Bank of America in India, I proposed to my U.S. partner that we build architecture capabilities in India. I thought that this would save us money. He was not convinced because he felt that the architecture team needed to collocate with users for a better understanding of user needs, and so needed to be in the U.S. </t>
+  </si>
+  <si>
+    <t>I still believed that my idea would work, so I proposed that, instead of hiring an architect, we test my idea and assign a senior developer in India to work with the U.S. architecture team. My U.S. partner was amenable to this approach as a “pilot project.”</t>
+  </si>
+  <si>
+    <t>I onboarded a senior developer, and he started working with the architecture team remotely. He was working on a migration project from Oracle to SAP. This developer, now functioning as a remote member of the architecture team, was able to offer significant contributions to the project from India. He created a proof of concept for moving data across systems, which the team ultimately used as a framework for other work. He also helped the onshore team prepare architecture diagrams.</t>
+  </si>
+  <si>
+    <t>Once the offshore architect started delivering from India, my U.S. partner’s perspective on the matter began to shift. He asked me to ramp up the architecture team with more remote team members. After building this team, overall delivery improved as offshore had become an extended capability to complement the existing onshore team.”</t>
+  </si>
+  <si>
+    <t>This story shows that the engineering manager was willing to take different approaches to get her idea across, which is great. However, the story would be stronger if it included more details about how she dealt with the conflict with her U.S. partner. When you are telling a story about how you “Have Backbone,” don’t shy away from talking about the confrontation itself, and how you behaved in that situation. Don’t just rush to the outcome.</t>
+  </si>
+  <si>
+    <t>Question: Was there a time when you were right but your senior colleagues didn’t agree with you?</t>
+  </si>
+  <si>
+    <t>Answer given by a UX Designer</t>
+  </si>
+  <si>
+    <t>“The project was helping the marketing team create campaigns. I had designed a low-fidelity wireframe option and was reviewing it with product management and engineering. Our user was supposed to click on the “Create New Campaign” button, which would then take them to “Create Mode.” After applying a set of filters, the user would then click “Save,” and the campaign page would then go into the “Read Only” mode. At that point, the filters are not accessible to the user. To access the filters again, the user had to click the “Edit Campaign” button. Product management and engineering did not like this flow because they thought that the user should always be in “Edit” mode.</t>
+  </si>
+  <si>
+    <t>I tried to convince them that my flow was a common design pattern that users would find familiar, demonstrating for example how users added contacts on their phones. They showed me an old desktop enterprise product and said that it was better. Since I was struggling to convince them, I created a flow that was in line with their suggestion and requested that they participate in a usability test of that flow. To me, this usability test was not strictly necessary because I knew from experience that users would find my proposed solution more intuitive and easier to use. I went ahead regardless to convince my colleagues.</t>
+  </si>
+  <si>
+    <t>I had a group of users try “Option A” (which was my flow) and another group of users try “Option B” (which was their flow). I performed the usability tests with my colleagues so that they could see for themselves how users interacted with each flow. The test results showed what users preferred and how they interact with interfaces of this type. We went with Option A.”</t>
+  </si>
+  <si>
+    <t>This story is interesting because the UX designer sticks to his principles in the face of adversity. Both product and engineering are aligned against him, and it would have been easier for him to just agree with them. But as a UX designer, he must put users first. That’s his role on the team. So he patiently set up the test to guide his colleagues toward a better way.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>    First, summarize for the interviewer an idea that you had. Tell a story about how you were convinced that your idea was the right way forward.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.    Next, discuss the point of contention. After you explain your idea, describe how and why someone didn’t agree with your idea. Then, discuss what tactic you used to win the other person over. A good way to impress your interviewer is to describe how you used data in making your argument.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>.    Finally, if you were unsuccessful in persuading others, explain that you “committed” regardless. It’s okay if you lost the argument, but demonstrate that you were mature enough to support the decision that the company chose. On the other hand, if you were successful in winning support for your idea, skip this step. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>What did you do when you needed to motivate a group of individuals or promote collaboration on a particular project?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Talking about the details </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>is extremely important to ace dive deep questions. Always provide a detailed account of what happened and how you overcame the challenge. This is especially important for those who are more concerned with the bigger picture of a situation. You will need to dig into details while answering these questions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The interview is an opportunity to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>sell yourself.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t> So don’t shy away from highlighting your accomplishments. At the same time, make sure that you don’t undermine the contribution of others or bring them down. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>If you are unsure about a question, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>never hesitate to clarify.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t> Asking a lot of questions is also a way to dive deep.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Don’t embellish or omit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>any part of the story.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Choose examples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t> that highlight your unique skills. That will set you apart from the competition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Always remember the mantra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>“trust yet verify.” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>When doing your research on Amazon, never blindly believe something because you have been told so. Make an effort to learn the nitty-gritty of everything that you do and gather the data. After all, Amazon is a data-driven company.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>When I first started working as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>software developer</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color rgb="FF333333"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>, I would often fall behind schedule due to my procrastination. Even though I wanted to make a great impression, I wasn’t able to. This was also making things harder for the entire team. My supervisor pointed it out on a couple of occasions, and I felt that procrastination was due to my lack of confidence in my skills. Things didn’t go as well as I had hoped, and I was finally let go. I decided to use this as an opportunity. I enrolled in a special certification course and started working as a freelance software developer. My confidence grew, and I was able to overcome my procrastination by strengthening my skills.</t>
+    </r>
+  </si>
+  <si>
+    <t>How Amazon explains the “Earn Trust” principle</t>
+  </si>
+  <si>
+    <t>Leaders listen attentively, speak candidly, and treat others respectfully. They are vocally self-critical, even when doing so is awkward or embarrassing. They benchmark themselves and their teams against the best.</t>
+  </si>
+  <si>
+    <t>So let’s take a closer look at this principle.</t>
+  </si>
+  <si>
+    <t>What does the “Earn Trust” principle mean?</t>
+  </si>
+  <si>
+    <t>The first sentence of the principle is straightforward and expected in any professional environment. The interview is a great opportunity for you to “Earn Trust” by listening to your interviewer attentively and answering questions candidly.</t>
+  </si>
+  <si>
+    <t> In the second sentence of the “Earn Trust” principle, things get more interesting. At Amazon, you’re expected to win over your colleagues (i.e., earn their trust) by being “vocally self-critical.” In other words, you’re not afraid to point out your own faults to others. To win trust, you must show that you understand best-in-class standards, and that you seek to meet or exceed them. </t>
+  </si>
+  <si>
+    <t>How do you “Earn Trust” at Amazon?</t>
+  </si>
+  <si>
+    <t>Leaders at Amazon embody this principle by:</t>
+  </si>
+  <si>
+    <t>consistently making good decisions</t>
+  </si>
+  <si>
+    <t>keeping commitments</t>
+  </si>
+  <si>
+    <t>treating others and their ideas with respect</t>
+  </si>
+  <si>
+    <t>adhering to high ethical standards</t>
+  </si>
+  <si>
+    <t>admitting failures</t>
+  </si>
+  <si>
+    <t>listening, communicating, and delegating to help employees get the right things done</t>
+  </si>
+  <si>
+    <t>Leaders “Earn Trust” when they “take the hit.” When undesirable outcomes happen, we’re all quick to point the finger. If your team members see that you’re willing to take the blame for the good of the team, even if it’s not directly your fault, then they’ll start to let go and trust you. As leader of a team, you need to accept the responsibility for both the good and the bad.</t>
+  </si>
+  <si>
+    <t>True collaboration is only possible in an atmosphere of trust. And that atmosphere must be set by a leader who has earned his team members’ trust and who trusts them in return.</t>
+  </si>
+  <si>
+    <t>Interview Questions Related to the “Earn Trust” Leadership Principle</t>
+  </si>
+  <si>
+    <t>Tell me about a time you had to earn trust quickly.</t>
+  </si>
+  <si>
+    <t>Building trust can be difficult to achieve at times. Tell me about how you’ve effectively built trusting working relationships with others on your team.</t>
+  </si>
+  <si>
+    <t>Describe a time when you significantly contributed to improving morale and productivity on your team. What were the underlying problems and their causes? How did you prevent them from negatively impacting the team in the future?</t>
+  </si>
+  <si>
+    <t>Give an example of a time where you were not able to meet a commitment to a team member. What was the commitment and what prevented you from meeting it? What was the outcome and what did you learn from it?</t>
+  </si>
+  <si>
+    <t>Describe a time when you needed the cooperation of a peer or peers who were resistant to what you were trying to do. What did you do? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a piece of direct feedback you recently gave to a colleague. How did he or she respond?</t>
+  </si>
+  <si>
+    <t>How do you like to receive feedback from coworkers or managers?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when someone (peer, teammate, supervisor) criticized you about a piece of work/analysis that you delivered. How did you react? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you had to tell someone a harsh truth.</t>
+  </si>
+  <si>
+    <t>Tell me about a time you had to communicate a big change in direction for which you anticipated people would have a lot of concerns. How did you handle questions and/or resistance? Were you able to get people comfortable with the change? </t>
+  </si>
+  <si>
+    <t>How do you convince someone who is resistant to what you’re trying to do?</t>
+  </si>
+  <si>
+    <t>How to Answer Interview Questions Related to the “Earn Trust” Leadership Principle</t>
+  </si>
+  <si>
+    <t>Question: How did you quickly earn your client’s trust?</t>
+  </si>
+  <si>
+    <t>Answer given by a Solutions Architect</t>
+  </si>
+  <si>
+    <t>“One of the largest mass entertainment companies in North America purchased licenses for product X and signed a statement of work (SOW) for Professional Services for implementing the solution.</t>
+  </si>
+  <si>
+    <t>I was the architect and hands on technical resource for doing the migration. I created detailed standard operating procedures, end user training materials, and delivered end user trainings once the solution went live in production, even though these weren’t in the scope of the services SOW.</t>
+  </si>
+  <si>
+    <t>I was engaged in building the long-term deployment roadmap, working very closely with customer’s stakeholders. By demonstrating strong technical acumen and client-facing skills, I was able to earn trust in a short period of time. I quickly became part of the customer’s inner circle.</t>
+  </si>
+  <si>
+    <t>The solution was successfully deployed, and we went live with one of their key services in production. The initial SOW was for a three-month engagement, but we stayed with the customer for about two years delivering services. We were able to successfully expand the solution capabilities during that period, assisting the customer in further enhancing their security protocols.”</t>
+  </si>
+  <si>
+    <t>In this story, notice how the solutions architect credits her “technical acumen and client-facing skills” for winning the customer over. But earlier in the story, she described how she had already demonstrated that she was willing to go above and beyond the requirements of the SOW to make the project successful. In other words, she set a higher standard for both herself and the project. This type of behavior will help you “Earn Trust” at Amazon. </t>
+  </si>
+  <si>
+    <t>Let’s look at another answer for the same question</t>
+  </si>
+  <si>
+    <t>Answer given by an Account Executive</t>
+  </si>
+  <si>
+    <t>“One of the large full-service banks in North America had already purchased our product licenses to manage the company system permissions and user identity. Due to organizational changes, the new leadership team had decided to shop for alternative solutions, and compare/contrast all the functional/technical capabilities before finalizing a single solution. My accounts team brought me in to talk about the solution, and why it would be a good fit for this client.</t>
+  </si>
+  <si>
+    <t>As a first step, I flew to L.A. and conducted an all-day workshop with the key stakeholders to carefully listen to their concerns and reasons for the vendor solution review exercise, as well as to understand their business and the technical requirements. We had good discussions during this workshop. I told them that I agreed to some of the areas of improvements in our product and made a note of them for an internal product management team review. At the same time, I was candid in my feedback regarding some of the requirements and suggested alternative options to minimize operational overhead in the long run.</t>
+  </si>
+  <si>
+    <t>By the end of the day, the client wanted me to work with them in conducting a proof of concept (POC) in their environment. I believe listening attentively to the customer, speaking candidly and demonstrating sound technical and communication skills helped me in gaining trust in a short period of time. I was able to deliver the POC successfully and in turn signed a professional services SOW contract of about eight hundred thousand dollars.”</t>
+  </si>
+  <si>
+    <t>After reading this story, return to the section above and read the “Earn Trust” principle again. I hope you can see that the story demonstrates the principle almost perfectly. Note in the story the emphasis on attentive listening. Note also how the person telling the story is will to admit that the product has faults. It’s easy to see why this person won the customer’s trust.</t>
+  </si>
+  <si>
+    <t>Question: Tell me about a time you coached someone and provided feedback</t>
+  </si>
+  <si>
+    <t>“One of the senior managers complained about one of the developers on my team regarding his tone being too harsh and frank in his emails and over the phone. My manager brought it to my attention, and I told him I would take care of it.</t>
+  </si>
+  <si>
+    <t>I immediately pulled this employee in for a one-on-one and brought this to his attention. I told him it was not what he said but how he said it that makes all the difference. There are more politically correct ways to provide feedback to other teams regarding their mistakes.</t>
+  </si>
+  <si>
+    <t>He agreed that he reacted out of frustration and promised me he would be more careful going forward. It has been a year now, and he has completely turned it around. He had numerous accolades from other managers regarding his integrity, and he is now one of the rising stars on my team.”</t>
+  </si>
+  <si>
+    <t>This story highlights a theme I see again and again in working with professionals across all walks of life. As hesitant as we sometimes are to give feedback, when we set aside our fears and give honest, candid feedback, people are often extremely appreciative and grow because of it. This story demonstrates another way to “Earn Trust.”</t>
+  </si>
+  <si>
+    <t>Amazon Leadership Principle #1: Customer Obsession</t>
+  </si>
+  <si>
+    <t>This is how Amazon explains the principle:</t>
+  </si>
+  <si>
+    <t>So what does this principle mean? It means customers are the top priority. </t>
+  </si>
+  <si>
+    <r>
+      <t>Here is another way of understanding it.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> If you are obsessed with customers, you will:</t>
+    </r>
+  </si>
+  <si>
+    <t>Know your customer’s needs and wants</t>
+  </si>
+  <si>
+    <t>Collect data on what your customer wants and needs</t>
+  </si>
+  <si>
+    <t>Ask, “Is what I’m working on helping my customers"?</t>
+  </si>
+  <si>
+    <t>Sincerely pursue customer feedback</t>
+  </si>
+  <si>
+    <t>"WOW” your customers</t>
+  </si>
+  <si>
+    <t>Know what would be better than what your customer is imagining and give them that</t>
+  </si>
+  <si>
+    <t>Remove steps in your process that don't add value</t>
+  </si>
+  <si>
+    <t>How to answer "customer obsession" questions in Amazon interviews</t>
+  </si>
+  <si>
+    <t>I've explained what the principle is about, so now how will this principle show up in your interview? Are they going to ask, "Are you obsessed with customers?" Well, they might ask this exact question, but the questions aren't usually so clear. There are various ways you might get asked about this.</t>
+  </si>
+  <si>
+    <t>Example interview questions asking about your customer obsession</t>
+  </si>
+  <si>
+    <t>Tell me about a time you handled a difficult customer. What did you do? How did you manage the customer? What was her/his reaction? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Most of us at one time have felt frustrated or impatient when dealing with customers. Can you tell me about a time when you felt this way and how you dealt with it?</t>
+  </si>
+  <si>
+    <t>When do you think it’s ok to push back or say no to an unreasonable customer request?</t>
+  </si>
+  <si>
+    <t>How do you develop client relationships?</t>
+  </si>
+  <si>
+    <t>Tell me about a time you used customer feedback to change the way you worked.</t>
+  </si>
+  <si>
+    <t>Tell me about a time you had to compromise in order to satisfy a customer.</t>
+  </si>
+  <si>
+    <t>How do you get an understanding of what the customer’s needs are?</t>
+  </si>
+  <si>
+    <t>How do you anticipate your customer’s needs?</t>
+  </si>
+  <si>
+    <t>How do you honestly pursue customer feedback, not just solicit them for compliments?</t>
+  </si>
+  <si>
+    <t>How do you wow your customers?</t>
+  </si>
+  <si>
+    <t>Tell me about a time a customer wanted one thing, but you felt they needed something else.</t>
+  </si>
+  <si>
+    <t>When was a time when you had to balance the needs of the customer with the needs of the business? </t>
+  </si>
+  <si>
+    <t>These questions don't use the words "customer obsession" but they're asking you whether you're obsessed with customers even without those words. No, you don't need to use the words "obsessed" or "obsession" in your answer.</t>
+  </si>
+  <si>
+    <t>Answer the questions using behavioral question answering techniques</t>
+  </si>
+  <si>
+    <t>These questions are called behavioral questions. Do you know what behavioral interview questions are?</t>
+  </si>
+  <si>
+    <t>They're the type of questions that start with something like, "Give me an example of..." or "Tell me about a time...." Even the questions that start off with "How do you..." are asking you about your past behavior, so they are "behavioral" questions.</t>
+  </si>
+  <si>
+    <t>Use stories to answer behavioral questions</t>
+  </si>
+  <si>
+    <r>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> of these questions that I listed need to be answered with a story about a time in your past work experience.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Even if you get asked "How do you wow your customers?" — which seems like it wants a general answer like "I work really hard" or something like that — they are actually asking for a story about something specific. Even with the "how" questions you should answer with something like, "I try to go above and beyond to serve my customers </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>[general statement about your habits]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. For example, once last year I had to..." </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>[story about specific, real event]</t>
+    </r>
+  </si>
+  <si>
+    <t>In other words, you can give a short, general statement that describes your personality or work habits but that isn't enough; you need to also give a specific example that shows your skills.</t>
+  </si>
+  <si>
+    <t>Use the PAR technique to structure your stories</t>
+  </si>
+  <si>
+    <t>So you have a good story to tell. Now how exactly do you tell it so that it's clear and not too short or too long?</t>
+  </si>
+  <si>
+    <t>Use the PAR technique. </t>
+  </si>
+  <si>
+    <r>
+      <t>The PAR technique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> is a common system used to answer </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>behavioral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> interview questions. It provides a structure for you to remember so that you include the correct data in your answers. If you've heard of the "STAR" technique, PAR is virtually the same thing. You can use either but I prefer PAR because it's easier to remember 3 steps.</t>
+    </r>
+  </si>
+  <si>
+    <t>These are the 3 steps of PAR:</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> - background info / what the issue is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> - what you did to solve the problem - this should be the longest part of the answer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> - what happened in the end; positive; quantifiable; what you learned; what you would do differently next time</t>
+    </r>
+  </si>
+  <si>
+    <t>If you get asked a behavioral question, answer by going through the letters in order.</t>
+  </si>
+  <si>
+    <r>
+      <t>First give the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> part (explain the basic situation and what your job was in this situation). Then give the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> (show what you did to solve the problem). Last, give the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> (outcome).</t>
+    </r>
+  </si>
+  <si>
+    <t>This is the basic PAR method. Here is more about PAR, including sample answers to some possible questions, if you feel like you need more information before you start using it. </t>
+  </si>
+  <si>
+    <t>Possible mistakes in answering customer obsession questions</t>
+  </si>
+  <si>
+    <t>Often interviewees miss how their actions relate to the customer experience. Even if you aren't in a customer-facing role like sales, you still work for the person who clicks "Buy." So in your interview answers, you should show that you know who your customers are and that you think about solving their needs, not just doing the tasks assigned to you as part of your job. You want to show you're not so focused on doing what you're told, or so focused on building what you're asked to, that you never take a step back to understand who uses the product. Yes, your boss or another department is your "customer" because you have to make them happy, but the end user is also your customer. A good customer obsession story will show that you are aware of both types of customers, the end user and also your boss or the other department you work with or your partner, etc.</t>
+  </si>
+  <si>
+    <t>Avoid saying, "I let my boss handle it" or "I wasn't sure how to handle it" or "The customer is always right so I gave them what they wanted." You need to show that you aren't afraid of conflict (very important at Amazon), you know how to handle conflict in a way so that customer isn't hurt, and that you also know how to handle conflict so that the company isn't hurt. You need to show all of this and that you have good people skills (if you're in a customer-facing role) and good communication skills regardless of your role.</t>
+  </si>
+  <si>
+    <t>Sample answers for customer obsession questions</t>
+  </si>
+  <si>
+    <t>Question: Tell me about a time you handled a difficult customer.</t>
+  </si>
+  <si>
+    <t>This is the answer given by a salesperson:</t>
+  </si>
+  <si>
+    <t>"When I was a Sales Manager at X we had a group of unhappy customers. We'd sold them a weed killer that hadn't worked well. As farmers, this was important to them and they were threatening to take their business to our competitor. I had to try to keep them as customers. I knew this would be hard because our product had been defective and had cost them money. I had a meeting with all of them where I listened to them complain about what had happened. I tried to listen to each of them and respond calmly. I explained to them what had happened, which was definitely our fault, and apologized. In the end, they agreed to give us one more chance even though I couldn't offer them a refund (I didn't have the ability to do that.)"</t>
+  </si>
+  <si>
+    <t>Why is this answer good?</t>
+  </si>
+  <si>
+    <t>It talks about skills that will be relevant in the job she is applying for — dealing with unhappy clients, client communication, conflict management</t>
+  </si>
+  <si>
+    <t>It follows the PAR structure so it's easy to follow</t>
+  </si>
+  <si>
+    <t>It keeps to the details that are needed but doesn't add more — not too short or too long</t>
+  </si>
+  <si>
+    <t>It references the Amazon principle "customer obsession" although you'll notice she doesn't use those words </t>
+  </si>
+  <si>
+    <t>Try to do the same things when answering your questions.</t>
+  </si>
+  <si>
+    <t>This is her answer broken down with PAR:</t>
+  </si>
+  <si>
+    <r>
+      <t>P:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> When I was a Sales Manager at X we had a group of unhappy customers. We'd sold them a weed killer that hadn't worked well. As farmers, this was important to them and they were threatening to take their business to our competitor. I had to try to keep them as customers. I knew this would be hard because our product had been defective and had cost them money.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t> I had a meeting with all of them where I listened to them complain about what had happened. I tried to listen to each of them and respond calmly. I explained to them what had happened, which was definitely our fault, and apologized.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>: In the end, they agreed to give us one more chance even though I couldn't offer them a refund (I didn't have the ability to do that).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Note the length. Each section has only two to four sentences in it. Is this too short? It's pretty short. You could definitely add more details without making it too long. In the Problem section you could explain why the weed killer didn't work. What happened behind the scenes? In the Action section you could also give more detail about the same thing. In the Results section you c0uld say more about why they decided to work with you again.</t>
+    </r>
+  </si>
+  <si>
+    <t>Question: How do you get to an understanding of what the customer’s needs are?</t>
+  </si>
+  <si>
+    <r>
+      <t>You might feel like you should answer by saying something like "I do customer research" but they want a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specific </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>example of something that you did at work in the past and not a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>general</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> answer.</t>
+    </r>
+  </si>
+  <si>
+    <t>This is the answer given by a Senior Digital Product Manager:</t>
+  </si>
+  <si>
+    <t>"I use quantitative and qualitative approaches. Quantitative is looking at data to derive insights. Data can be what are customers doing when they use your product and if you're using a digital product you could use an approach like web analytics. Qualitative approaches you can simply ask them about their needs about how they use your product, but a better way is to immerse yourself into their problem space and ask where does the product fit into their daily life today? For example, in looking at my top customers, in terms of the customers most engaged on my platform, I can see that content about IT certification is very popular. As a result we started doing online trainings and certifications. So instead of just a course or video, we do live trainings now. Those turned out to be really popular. So it seems that anything we give them in terms of IT certifcation is really popular. So I've started to talk to customers about the role of certification in their workplace. It turns out that it's important because it's tied to promotions." </t>
+  </si>
+  <si>
+    <t>This answer could be improved. How could you make it better? Let's break it down into P-A-R first. </t>
+  </si>
+  <si>
+    <t>The first part is not actually the Problem/Situation, but rather what I call "general stuff" and "extra stuff we don't need" — it's typical to see this at the start of answers — do you see how it isn't actually "P" stuff? It's not really giving you the situation. Look at it again:</t>
+  </si>
+  <si>
+    <t>"I use quantitative and qualitative approaches. Quantitative is looking at data to derive insights. Data can be what are customers doing when they use your product and if you're using a digital product you could use an approach like web analytics. Qualitative approaches you can simply ask them about their needs about how they use your product, but a better way is to immerse yourself into their problem space and ask where does the product fit into their daily life today?"</t>
+  </si>
+  <si>
+    <t>How could you use the same info but fix the structure? Move it around this way:</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> — I use both quantitative and qualitative methods to find out what my customers need. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>[I kept one sentence of the general stuff as a lead in.]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> For example, last month I wanted to find out what type of content was most popular on our site so we could do more of it. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> — I looked at data on my top customers, in terms of the customers most engaged on my platform, and I could see that content about IT certification is very popular.  So I started to talk to customers about the role of certification in their workplace. It turns out that it's important because it's tied to promotions. As a result we started doing online trainings for the certifications. So instead of just a course or video, we do live trainings now as part of the educational product line up.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> — Those turned out to be really popular. So it seems that anything we give them in terms of IT certification is really popular.</t>
+    </r>
+  </si>
+  <si>
+    <t>You can see how applying the P-A-R structure and eliminating what didn't fit into that structure resulted in a much clearer answer. The answer also now uses a specific example to explain how he finds out what his customers want and isn't just general info about research methods. </t>
+  </si>
+  <si>
+    <t>The second Amazon leadership principle is “Ownership.”</t>
+  </si>
+  <si>
+    <t>Here’s how Amazon explains the principle:</t>
+  </si>
+  <si>
+    <t>Leaders are owners. They think long term and don’t sacrifice long-term value for short-term results. They act on behalf of the entire company, beyond just their own team. They never say “that’s not my job.” </t>
+  </si>
+  <si>
+    <t>If you’re not clear on what this definition of “ownership” means exactly, here are some other ways of understanding it. If you show ownership, you will:</t>
+  </si>
+  <si>
+    <t>Ignore boundaries between jobs and departments if necessary to get your project done. If you see a problem and it’s not in your department, you will try to fix it.</t>
+  </si>
+  <si>
+    <t>Along the same lines, you will manage every dependency and won’t make excuses if something goes wrong. You won’t say, “That wasn’t my job to take care of.”</t>
+  </si>
+  <si>
+    <t>Think about the impact of your decisions on other teams, sites, and the customer over time.</t>
+  </si>
+  <si>
+    <t>Consider future outcomes (scalable, long-term value, and so on).</t>
+  </si>
+  <si>
+    <t>Coach and mentor your team to understand the big picture, how their role supports the overall objectives of Amazon, and how it ties to others.</t>
+  </si>
+  <si>
+    <t>Your interviewer may ask you to demonstrate your ownership skills. In the following section, let’s review the top five questions related to ownership, based on my experience with clients.</t>
+  </si>
+  <si>
+    <t>Top Five Amazon Interview Questions Related to Ownership</t>
+  </si>
+  <si>
+    <t>1.    Provide an example of when you personally demonstrated ownership.</t>
+  </si>
+  <si>
+    <t>2.    Tell me about a time you went above and beyond.</t>
+  </si>
+  <si>
+    <t>3.    Tell me about a time when you took on something significant outside your area of responsibility. Why was it important? What was the outcome?</t>
+  </si>
+  <si>
+    <t>4.    Describe a project or idea (not necessarily your own) that was implemented primarily because of your efforts. What was your role? What was the outcome?</t>
+  </si>
+  <si>
+    <t>5.    Give an example of when you saw a peer struggling and decided to step in and help. What was the situation and what actions did you take? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Sample answers for the top five ownership leadership principle questions</t>
+  </si>
+  <si>
+    <t>Question 1. Provide an example of when you personally demonstrated ownership.</t>
+  </si>
+  <si>
+    <t>Here’s a Senior Product Manager’s answer:</t>
+  </si>
+  <si>
+    <t>“When we were trying to penetrate the academic markets, it required a new way of interacting with the customer. No one was clear on what this method was. It wasn’t my job to create the marketing plan, but I could see that no one was having success with it so I did research and figured it out myself. At our next meeting, I presented my method and we implemented it. As a result of this initiative, we’ve made millions of dollars in this market, and I believe my marketing plan contributed to that success.”</t>
+  </si>
+  <si>
+    <t>This answer would be better if he said where he was working when this happened, what product they were trying to introduce into the academic market, why it required a new way of interacting with the customer, and what his approach was to entering that market. As it is it’s pretty light on the specific details that will make the story more interesting and make it seem more believable.</t>
+  </si>
+  <si>
+    <t>Question 2. Tell me about a time you went above and beyond.</t>
+  </si>
+  <si>
+    <t>Going “above and beyond” is an idiom that means you do more than you’re required to do.</t>
+  </si>
+  <si>
+    <t>Here’s one software developer’s answer:</t>
+  </si>
+  <si>
+    <t>“While working on my most recent project, our customer asked to add a new feature to the product. While it was a reasonable request, it went beyond the scope of the project we had worked out, and there was no time built in to the schedule for it. My manager decided that we couldn’t refuse and insisted that we rework the schedule. This change increased my workload about 25 percent in the same timeframe. I did my best to complete the extra work in the time given by working later at night and also working some of the weekends. Although it wasn’t an ideal situation, we managed to pull it off and the customer was satisfied with our work.”</t>
+  </si>
+  <si>
+    <t>This developer should add details about the type of product, the feature, and the work she was doing to make for a stronger answer. Why did the manager insist on doing the work? Details help make the story sound more real.</t>
+  </si>
+  <si>
+    <t>Also, “above and beyond” means “extra,” so in other words if you do something extra it will be something that isn’t already in your job description. Weren’t the things she’s talking about here just her normal everyday job? How are they outside her normal work? I don’t think they actually are, so I don’t think this would be a good choice to answer this particular question. She could use this as an example of doing something quickly or helping a customer.</t>
+  </si>
+  <si>
+    <t>Question 3. Tell me about a time when you took on something significant outside your area of responsibility. Why was it important? What was the outcome?</t>
+  </si>
+  <si>
+    <t>This is an Operations Manager’s answer:</t>
+  </si>
+  <si>
+    <t>“We were moving our site from the old domain to the new domain. The old site generated trials worth $4.50 each and we were getting 1000 per day. The key was to migrate the content pages and have Google re-index the site quickly enough so that organic search results didn’t fall. I didn’t see anyone treating this project with the sense of urgency or risk mitigation that I thought it deserved, so I took over coordinating it, although it should have been the marketing team leading this effort. We completed the migration in the first quarter, and as a result we made our B2C budget numbers.”</t>
+  </si>
+  <si>
+    <t>This answer should give more details about the Problem step, explaining where this person was working and what kind of site it was and why they were migrating, and also about the Action step, saying what steps this person took to coordinate the project.</t>
+  </si>
+  <si>
+    <t>This is a similar question to the “above and beyond” one, but this is something that is clearly outside of this person’s normal area of work and so it answers the question better than the developer did.</t>
+  </si>
+  <si>
+    <t>Question 4. Describe a project or idea (not necessarily your own) that was implemented primarily because of your efforts. What was your role? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Digital Marketing Manager’s answer:</t>
+  </si>
+  <si>
+    <t>“Last year we weren’t getting high enough conversion rates on some of our pages for our newest product. They were well below our goal. I was managing the team whose goal was to fix this. I coordinated our landing page optimization efforts and we updated the user interface on 10+ landing pages in less than three months. We saw conversion lifts between 25 and 45 percent.”</t>
+  </si>
+  <si>
+    <t>The structure of the answer is solid but it’s missing details and so is too short. This person could add explanation for what the products were, what the pages that weren’t converting were, why they weren’t converting, and more details about how she fixed the problem.</t>
+  </si>
+  <si>
+    <t>What skills should a person in this role have? Add details that show you have those skills in particular when expanding your story.</t>
+  </si>
+  <si>
+    <t>Question 5. Give an example of when you saw a peer struggling and decided to step in and help. What was the situation and what actions did you take? What was the outcome?</t>
+  </si>
+  <si>
+    <t>Senior Business Development Manager’s answer:</t>
+  </si>
+  <si>
+    <t>“At my current job, there was an opportunity to enter into a new marketplace. I had a colleague who was preparing the plan to do this. I saw that he was missing some of the key players in the space and so probably wouldn’t be successful. I knew the right people to talk to from my work at a past job. Even though it wasn’t my project, I wanted to help him because ultimately his deal would help us all, so I made some introductions to the right people. It worked out and he was able to close the deal.”</t>
+  </si>
+  <si>
+    <t>This answer is strong but he could add more details about the marketplace and the new plan. The interviewee demonstrates ownership by speaking up and helping the person on his team. He didn’t have to do that. Also, note that his reason for helping his teammate was about helping the business as a whole.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,12 +1661,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Calibri"/>
@@ -342,6 +1673,209 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF111111"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.7"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.7"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF111111"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF324158"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10.7"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -367,10 +1901,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -389,17 +1924,115 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,8 +2344,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EC0F6A-74B4-4826-99DF-2CB00802D06B}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1668234-5825-4C82-9E72-D10A61431A70}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.21875" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126F1238-18CD-4F22-BB5B-51D50BC6C67B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F573C7-F6BF-40F8-8FFB-9F55F6F825F4}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -720,36 +2509,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -758,7 +2547,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7E08E-F755-45E6-B0D1-9CA6E5B53FFC}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94BFA92-A93D-4F31-8F52-302ACDE409EA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B970A7C6-0A36-4DCC-A529-B2DC04B9DF91}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -806,12 +2691,811 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82DE0C8-7F23-4B3F-8DE8-448439008445}">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A83" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EC0F6A-74B4-4826-99DF-2CB00802D06B}">
+  <dimension ref="A1:D145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="95.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="248.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A94" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="23"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="21" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A121" s="20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A135" s="21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A141" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A88" r:id="rId1" display="https://interviewgenie.com/blog-1/2018/6/20/use-par-not-star-for-answering-behavioral-questions" xr:uid="{97CCC752-2178-4EBA-B627-211BF1F76593}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2393D6C-71F4-4190-80DD-731FA87951B2}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF640EE4-6416-493F-9C36-1A7DB9791F4F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,99 +3533,897 @@
         <v>31</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A55" s="46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A79" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="21" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EB02F-0B86-45E2-9E2D-0AE65EF1EA23}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584F9E4-2B6A-44A4-8B6E-4C15D4A61A59}">
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="1" max="1" width="51.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" style="12" customWidth="1"/>
+    <col min="3" max="4" width="38.88671875" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="144" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" ht="57.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" spans="1:1" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1" ht="216" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" spans="1:1" ht="43.2" x14ac:dyDescent="0.35">
+      <c r="A29" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A31" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
+      <c r="A33" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:1" ht="129.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:1" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A37" s="27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A39" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" spans="1:1" ht="57.6" x14ac:dyDescent="0.35">
+      <c r="A49" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="31"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" spans="1:1" ht="57.6" x14ac:dyDescent="0.35">
+      <c r="A57" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+    </row>
+    <row r="59" spans="1:1" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A59" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:1" ht="54" x14ac:dyDescent="0.35">
+      <c r="A61" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
+      <c r="A65" s="29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1" ht="72" x14ac:dyDescent="0.35">
+      <c r="A67" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="69" spans="1:1" ht="115.2" x14ac:dyDescent="0.35">
+      <c r="A69" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+    </row>
+    <row r="71" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
+      <c r="A71" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+    </row>
+    <row r="73" spans="1:1" ht="100.8" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75" spans="1:1" ht="54" x14ac:dyDescent="0.35">
+      <c r="A75" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1" ht="172.8" x14ac:dyDescent="0.35">
+      <c r="A79" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10"/>
+    </row>
+    <row r="81" spans="1:1" ht="158.4" x14ac:dyDescent="0.35">
+      <c r="A81" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="10"/>
+    </row>
+    <row r="83" spans="1:1" ht="100.8" x14ac:dyDescent="0.35">
+      <c r="A83" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="10"/>
+    </row>
+    <row r="85" spans="1:1" ht="100.8" x14ac:dyDescent="0.35">
+      <c r="A85" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" display="https://interviewgenie.com/blog-1/2018/12/11/how-to-answer-amazon-are-right-a-lot-leadership-principle-interview-questions" xr:uid="{134CBB59-6911-41FA-B38E-F0019E2F76E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6584F9E4-2B6A-44A4-8B6E-4C15D4A61A59}">
-  <dimension ref="A1:D3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388EB02F-0B86-45E2-9E2D-0AE65EF1EA23}">
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A15" zoomScale="102" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="51.109375" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="4" width="38.88671875" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="35" style="35" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" style="35" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="106.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A1" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="94.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="38" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.5">
+      <c r="A12" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.5">
+      <c r="A13" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="126" x14ac:dyDescent="0.5">
+      <c r="A15" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.5">
+      <c r="A16" s="40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="84" x14ac:dyDescent="0.5">
+      <c r="A17" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A18" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="168" x14ac:dyDescent="0.5">
+      <c r="A20" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A21" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A22" s="41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="168" x14ac:dyDescent="0.5">
+      <c r="A24" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A25" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A26" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="189" x14ac:dyDescent="0.5">
+      <c r="A28" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A29" s="42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="84" x14ac:dyDescent="0.5">
+      <c r="A30" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A31" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="126" x14ac:dyDescent="0.5">
+      <c r="A32" s="39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A33" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="126" x14ac:dyDescent="0.5">
+      <c r="A34" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="168" x14ac:dyDescent="0.5">
+      <c r="A36" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37" s="40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A38" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="210" x14ac:dyDescent="0.5">
+      <c r="A40" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A41" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="84" x14ac:dyDescent="0.5">
+      <c r="A42" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A43" s="40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="105" x14ac:dyDescent="0.5">
+      <c r="A44" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A45" s="40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="84" x14ac:dyDescent="0.5">
+      <c r="A46" s="41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A47" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="147" x14ac:dyDescent="0.5">
+      <c r="A48" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A49" s="43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="105" x14ac:dyDescent="0.5">
+      <c r="A50" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="126" x14ac:dyDescent="0.5">
+      <c r="A51" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="84" x14ac:dyDescent="0.5">
+      <c r="A52" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A53" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="42" x14ac:dyDescent="0.5">
+      <c r="A55" s="44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A56" s="44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="126" x14ac:dyDescent="0.5">
+      <c r="A57" s="45" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -950,232 +4432,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1668234-5825-4C82-9E72-D10A61431A70}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="56.21875" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82DE0C8-7F23-4B3F-8DE8-448439008445}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="58" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F207D0D-E09D-4D66-8C9A-057322480EAF}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126F1238-18CD-4F22-BB5B-51D50BC6C67B}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC38FCF-4571-4676-8A21-161EB66D2481}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +4457,7 @@
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1217,158 +4479,14 @@
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F573C7-F6BF-40F8-8FFB-9F55F6F825F4}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2393D6C-71F4-4190-80DD-731FA87951B2}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7E08E-F755-45E6-B0D1-9CA6E5B53FFC}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="48.5546875" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1377,39 +4495,39 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94BFA92-A93D-4F31-8F52-302ACDE409EA}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F207D0D-E09D-4D66-8C9A-057322480EAF}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1417,6 +4535,20 @@
       </c>
       <c r="D3" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="204.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Prep/Amazon/LeaderShipPrinciples.xlsx
+++ b/Prep/Amazon/LeaderShipPrinciples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Algorithms\Prep\Amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041D6F9-0170-4F38-87A1-46380B25B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AC5261-F401-45F7-A87A-FC9E776D977B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F254A1FC-440D-4643-80B3-1DB40E3DAEFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Deliver Results" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="393">
   <si>
     <t>Have Back Bone; Disagreement &amp; Commitment</t>
   </si>
@@ -282,6 +282,9 @@
    some internal were also interested in this implementation and they took KT from  me.</t>
   </si>
   <si>
+    <t>Tell me about a time when you’ve been unsatisfied with the status quo. What did you do to change it? Were you successful?</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Tell me about a time you wouldn’t compromise on achieving a great outcome when others felt something was already good enough. What was the situation?</t>
   </si>
@@ -1617,6 +1620,310 @@
   </si>
   <si>
     <t>This answer is strong but he could add more details about the marketplace and the new plan. The interviewee demonstrates ownership by speaking up and helping the person on his team. He didn’t have to do that. Also, note that his reason for helping his teammate was about helping the business as a whole.</t>
+  </si>
+  <si>
+    <t>How Amazon explains the “Learn and be curious” leadership principle</t>
+  </si>
+  <si>
+    <t>What does “Learn and be curious” mean exactly?</t>
+  </si>
+  <si>
+    <t>I think this is an easy principle to understand, right? Most of my clients don't have problems with this one.</t>
+  </si>
+  <si>
+    <t>The person who fits this principle is always learning and improving. They keep up with the trends and new developments in their field. They try to do things in a new way even if there’s no “need” for it. They're open to learning new things.</t>
+  </si>
+  <si>
+    <t>If this is you, and I hope it is if you're trying to get a job at Amazon because if it's not you will be miserable during the interview, you won't have a problem answering interview questions about this principle.</t>
+  </si>
+  <si>
+    <t>Some typical interview questions for the “Learn and be curious” principle</t>
+  </si>
+  <si>
+    <t>How do you stay inspired, acquire new knowledge, or innovate in your work?</t>
+  </si>
+  <si>
+    <t>What can you teach me in 5 minutes that I don’t already know?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you influenced change by only asking questions.</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you solved a problem through just superior knowledge or observation.</t>
+  </si>
+  <si>
+    <t>Tell me about a time you hired someone smarter than you.</t>
+  </si>
+  <si>
+    <t>Tell me something interesting you've learned recently.</t>
+  </si>
+  <si>
+    <t>Good answers for two “Learn and be curious” interview questions</t>
+  </si>
+  <si>
+    <t>Question: “How do you stay inspired, acquire new knowledge, or innovate in your work?” (The same answer works for "How do you keep up with the trends in your field?" or "How do you keep up with new technology?")</t>
+  </si>
+  <si>
+    <r>
+      <t>Answer: “For my job, I need to understand business trends, and I’m also personally interested in what’s going on in the world. I read many newspapers every day, including the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wall Street Journal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>New York Times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, and the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>Washington Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. I also read magazines, including the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>Economist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.7"/>
+        <color theme="1"/>
+        <rFont val="Georgia"/>
+        <family val="1"/>
+      </rPr>
+      <t>New Yorker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. In addition, I spend quite a bit of time reading news on Twitter and other places online. As a VP of Product for an EdTech company, I oversee a team that produces videos and courses on tech subjects, so I absorb a lot of the newest information there too.”</t>
+    </r>
+  </si>
+  <si>
+    <t>Why is this answer good? This answer is good because it demonstrates that the interviewee prioritizes learning in his daily habits, and he ties the learning directly back to what is useful for his job. Ultimately, the interview is about knowing whether you can do the job, so your answers should relate to the job duties. If you don't need to know what is happening in politics or economics for your job (many people don't) you wouldn't say that you read newspapers, for example.</t>
+  </si>
+  <si>
+    <t>Answer this question by being honest about how you keep up with new technology and new trends in your field. What do you do? You probably read blogs, newspapers, and/or books, or maybe you listen to podcasts or watch YouTube videos. There are probably other things you do too – do you take classes at a local school or online, somewhere like Coursera or EdX? Are you enrolled in some kind of certification program? Did you just finish a degree? I’ve also had clients successfully answer questions about this principle by describing a lecture series that they attended at lunch in their offices or a conference where they met industry leaders.</t>
+  </si>
+  <si>
+    <t>Show your interest or passion when you talk about whatever learning you are doing.</t>
+  </si>
+  <si>
+    <t>Don’t tell the interviewer you don’t have the time to do any of these things because you have a family and a job — I hear this answer a lot from clients, and I warn them that it’s a mistake. The interviewer will think you’re a bad candidate if you don’t have a list of ways you’re keeping up with new developments. When clients can’t think of anything at all that they do to keep learning — and you’d be surprised at how often I hear it — I know they’re never going to get a job at Amazon.</t>
+  </si>
+  <si>
+    <t>Question: “What can you teach me in 5 minutes that I don’t already know?”</t>
+  </si>
+  <si>
+    <t>Answer: “I’m going to teach you how to make tea the right way. The most important part is the water. What kind should you use? Purified and spring are the best, because they’re free from pollutants and other harmful substances. Start with cold water and then boil gently. Don’t boil for very long, because this can remove flavor from the water….”</t>
+  </si>
+  <si>
+    <t>(No, I’m not going to write the whole answer. You get the point.)</t>
+  </si>
+  <si>
+    <t>What does this question have to do with learning? Actually, it’s a test of your communication skills — can you explain something simple in a clear way using good English? It’s also a test of your speed of processing — you probably weren’t prepared for this, so can you think quickly enough to find a good topic? It’s a personality test — do you get nervous and act uncomfortable or do you handle the situation calmly? It’s also an intelligence test — do you choose something simple like how to open a bag of cookies or something more complicated and relevant to your job like how to write a good SQL query? Not that my tea example was bad. If you explain how to make tea and you do it well, the answer will be good enough.</t>
+  </si>
+  <si>
+    <t>This isn’t a trick question. Don’t obsess about picking the perfect example. Just pick something interesting and start talking.</t>
+  </si>
+  <si>
+    <t>General advice for these answers</t>
+  </si>
+  <si>
+    <t>If you’re a Type A person you aren’t going to struggle with these answers because I'm sure you do constantly try to learn new things. However, you may not be able to come up with an example of influencing change or solving a problem in a particular way if you haven’t prepped for it. So don't skip this one because it seems easy.</t>
+  </si>
+  <si>
+    <t>How Amazon explains the “Highest Standards” principle</t>
+  </si>
+  <si>
+    <t>The seventh leadership principle is “Insist on the Highest Standards.” This is how Amazon explains the principle:</t>
+  </si>
+  <si>
+    <t>Leaders have relentlessly high standards – many people may think these standards are unreasonably high. Leaders are continually raising the bar and driving their teams to deliver high-quality products, services and processes. Leaders ensure that defects do not get sent down the line and that problems are fixed so they stay fixed.</t>
+  </si>
+  <si>
+    <t>What does the “Highest Standards” principle mean?</t>
+  </si>
+  <si>
+    <t>Having high standards means you make exceptionally high demands of yourself and the products and services you work on. At Amazon, standards are set through service level agreements (SLAs). An SLA is a set of agreed upon standards at which any service or product will perform. In an Amazon SLA, even the worst outcome will outpace industry standards.</t>
+  </si>
+  <si>
+    <t>Nearly everything at Amazon has an SLA, and as such, nearly everything is measured to ensure the SLA standards are met. In your current job, have you taken the time to instrument your processes and services? Have you set clear expectations of success that you can measure via that instrumentation? If so, in your interview, be ready to tell your story.</t>
+  </si>
+  <si>
+    <t>If you want to show your interviewer that you insist on the highest standards, you should demonstrate that you:</t>
+  </si>
+  <si>
+    <t>Set SLAs for everything, and don’t take shortcuts on instrumentation.</t>
+  </si>
+  <si>
+    <t>Continually self-critique your work to make sure the quality is the best it can be.</t>
+  </si>
+  <si>
+    <t>Accept and seek coaching and feedback from your manager and others about improving the quality of your work.</t>
+  </si>
+  <si>
+    <t>Demand that your team delivers high-quality products, services, and solutions.</t>
+  </si>
+  <si>
+    <t>Coach employees about setting their own high standards and exceeding customer expectations.</t>
+  </si>
+  <si>
+    <t>Interview questions related to “Highest Standards”</t>
+  </si>
+  <si>
+    <t>Tell me about a time you wouldn’t compromise on achieving a great outcome when others felt something was already good enough. What was the situation?</t>
+  </si>
+  <si>
+    <t>What measures have you personally put in place to ensure performance improvement targets and standards are achieved?</t>
+  </si>
+  <si>
+    <t>Describe the most significant, continuous improvement project that you’ve led. What was the catalyst for this change and how did you go about it?</t>
+  </si>
+  <si>
+    <t>Give me an example of a goal you’ve had where you wish you had done better. What was the goal and how could you have improved on it?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you worked to improve the quality of a product / service / solution that was already getting good customer feedback? Why did you think it needed more improvement?</t>
+  </si>
+  <si>
+    <t>Give an example where you refused to compromise your standards around quality/customer service, etc. Why did you feel so strongly about the situation? What were the consequences? The result?</t>
+  </si>
+  <si>
+    <t>How to answer interview questions related to the “Highest Standards” leadership principle</t>
+  </si>
+  <si>
+    <t>Sample Answers for this principle</t>
+  </si>
+  <si>
+    <t>Answer given by an E-commerce manager</t>
+  </si>
+  <si>
+    <t>Answer given by a solutions architect</t>
+  </si>
+  <si>
+    <t>The “Deliver Results” principle</t>
+  </si>
+  <si>
+    <t>What does the “Deliver Results” leadership principle mean?</t>
+  </si>
+  <si>
+    <t>In many ways this is the most important Amazon leadership principle.</t>
+  </si>
+  <si>
+    <t>Delivering results is the one thing you absolutely must do if you work at Amazon. The other principles are important, but they’re merely building blocks to this one. In the words of the principle itself, if you “rise to the occasion” – meaning succeed in what you were doing – you’ve shown yourself to be a leader.</t>
+  </si>
+  <si>
+    <t>You may be asking yourself, “What is the point of the other principles if you don’t actually have to follow them?” I can understand your confusion because you’ve been studying the other principles, and now I’m telling you that they’re not crucial. It’s not that the other principles aren’t important, because they definitely are. It’s just that you need to think of them as the building blocks, and look at “Deliver Results” as the final product. The others are intended to be the steps you need to take to get results.</t>
+  </si>
+  <si>
+    <t>How to Answer Interview Questions Related to the “Deliver Results” Leadership Principle</t>
+  </si>
+  <si>
+    <t>So how do you actually show in your answers that you’ve delivered results? You need to tell stories about successes.</t>
+  </si>
+  <si>
+    <t>You can use a phrase like this to show your investment in delivering results:</t>
+  </si>
+  <si>
+    <t>“I was able to have a lot of responsibility and decision-making ability for X project, and by doing Y tasks, I delivered results in Z number of launches.”</t>
+  </si>
+  <si>
+    <t>In this phrase you talk about the tasks you did in order to create a particular result. This will fit easily into your PAR format answer – the situation or problem is the project you were working on and the action step is the tasks you did in order to create successful results.</t>
+  </si>
+  <si>
+    <t>Interview Questions Related to the “Deliver Results” Principle</t>
+  </si>
+  <si>
+    <t>Describe a situation where you had to face a particularly challenging situation while working on a project and what you did to overcome it. (Note: The challenge could be with respect to timeline, scope, people, or a combination thereof.)</t>
+  </si>
+  <si>
+    <t>How you check your progress against your goals?</t>
+  </si>
+  <si>
+    <t>Do you set and communicate smart team goals, expectations, and priorities; help employees stay focused/help others remove barriers/roadblocks towards meeting team goals?</t>
+  </si>
+  <si>
+    <t>Tell me about a time when you were able to persevere through setbacks and overcome obstacles to deliver outstanding results.</t>
+  </si>
+  <si>
+    <t>Tell me about a time where you not only met the goal but considerably exceeded expectations. How were you able to do it?</t>
+  </si>
+  <si>
+    <t>What’s the most complex problem you’ve ever worked on?</t>
+  </si>
+  <si>
+    <t>Have you ever worked on something really hard and then failed?</t>
+  </si>
+  <si>
+    <t>Sample Answers for “Deliver Results” Interview Questions</t>
+  </si>
+  <si>
+    <t>So, even though this wasn’t a formal request from him I ran with it. I started a conversation with Oracle on understanding the products we could leverage to get job done. I set up meetings with their product teams, got to know the product, discussed our requirements, and decided that we could come up with a solution. I implemented that solution in our development environment. I had the proof of concept done before the next sprint started in four weeks.</t>
   </si>
 </sst>
 </file>
@@ -2345,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1668234-5825-4C82-9E72-D10A61431A70}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,65 +2695,236 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="23"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A57" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A69" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A71" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="26" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="77" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A39" r:id="rId1" display="https://interviewgenie.com/blog-1/2018/6/20/use-par-not-star-for-answering-behavioral-questions" xr:uid="{DEB0EC5B-DB83-4058-B0B1-EF1D0801009E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2750,22 +3228,22 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2773,187 +3251,187 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="138" x14ac:dyDescent="0.3">
       <c r="A51" s="21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A55" s="21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="69" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3006,12 +3484,12 @@
     </row>
     <row r="15" spans="1:4" ht="81" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="69" x14ac:dyDescent="0.3">
@@ -3021,12 +3499,12 @@
     </row>
     <row r="21" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -3034,52 +3512,52 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="81" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A35" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="81" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3087,197 +3565,197 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="81" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="69" x14ac:dyDescent="0.3">
       <c r="A58" s="21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A62" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="138" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A84" s="21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A86" s="21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="248.4" x14ac:dyDescent="0.3">
       <c r="A92" s="21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="A94" s="21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="81" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="81" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="234.6" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
@@ -3285,112 +3763,112 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A111" s="21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A115" s="47" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A117" s="47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A119" s="47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="138" x14ac:dyDescent="0.3">
       <c r="A121" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="108" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A125" s="21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A127" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A129" s="26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A131" s="21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A133" s="21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="138" x14ac:dyDescent="0.3">
       <c r="A135" s="21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A139" s="20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="138" x14ac:dyDescent="0.3">
       <c r="A141" s="20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A143" s="20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A145" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3403,15 +3881,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2393D6C-71F4-4190-80DD-731FA87951B2}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="77.109375" customWidth="1"/>
     <col min="2" max="2" width="34.109375" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
@@ -3446,43 +3924,194 @@
     </row>
     <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="135" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="108" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="189" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A57" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="26" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +4124,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A89"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3535,42 +4164,42 @@
     </row>
     <row r="8" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -3578,52 +4207,52 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3631,157 +4260,157 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="54" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="69" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A69" s="46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A73" s="21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A85" s="21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A89" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +4463,7 @@
     </row>
     <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -3850,7 +4479,7 @@
     </row>
     <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -3858,7 +4487,7 @@
     </row>
     <row r="17" spans="1:1" ht="72" x14ac:dyDescent="0.35">
       <c r="A17" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -3866,7 +4495,7 @@
     </row>
     <row r="19" spans="1:1" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
@@ -3874,7 +4503,7 @@
     </row>
     <row r="21" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
@@ -3882,7 +4511,7 @@
     </row>
     <row r="23" spans="1:1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
@@ -3890,7 +4519,7 @@
     </row>
     <row r="25" spans="1:1" ht="216" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
@@ -3898,7 +4527,7 @@
     </row>
     <row r="27" spans="1:1" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A27" s="29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
@@ -3906,7 +4535,7 @@
     </row>
     <row r="29" spans="1:1" ht="43.2" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
@@ -3914,7 +4543,7 @@
     </row>
     <row r="31" spans="1:1" ht="72" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
@@ -3922,7 +4551,7 @@
     </row>
     <row r="33" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
@@ -3930,7 +4559,7 @@
     </row>
     <row r="35" spans="1:1" ht="129.6" x14ac:dyDescent="0.35">
       <c r="A35" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
@@ -3938,7 +4567,7 @@
     </row>
     <row r="37" spans="1:1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
@@ -3946,7 +4575,7 @@
     </row>
     <row r="39" spans="1:1" ht="28.8" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
@@ -3954,37 +4583,37 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
@@ -3992,7 +4621,7 @@
     </row>
     <row r="49" spans="1:1" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
@@ -4000,27 +4629,27 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
@@ -4028,7 +4657,7 @@
     </row>
     <row r="57" spans="1:1" ht="57.6" x14ac:dyDescent="0.35">
       <c r="A57" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
@@ -4036,7 +4665,7 @@
     </row>
     <row r="59" spans="1:1" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
@@ -4044,7 +4673,7 @@
     </row>
     <row r="61" spans="1:1" ht="54" x14ac:dyDescent="0.35">
       <c r="A61" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
@@ -4052,7 +4681,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
@@ -4060,7 +4689,7 @@
     </row>
     <row r="65" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
       <c r="A65" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
@@ -4068,7 +4697,7 @@
     </row>
     <row r="67" spans="1:1" ht="72" x14ac:dyDescent="0.35">
       <c r="A67" s="29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
@@ -4076,7 +4705,7 @@
     </row>
     <row r="69" spans="1:1" ht="115.2" x14ac:dyDescent="0.35">
       <c r="A69" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
@@ -4084,7 +4713,7 @@
     </row>
     <row r="71" spans="1:1" ht="86.4" x14ac:dyDescent="0.35">
       <c r="A71" s="29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
@@ -4092,7 +4721,7 @@
     </row>
     <row r="73" spans="1:1" ht="100.8" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
@@ -4100,7 +4729,7 @@
     </row>
     <row r="75" spans="1:1" ht="54" x14ac:dyDescent="0.35">
       <c r="A75" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
@@ -4108,7 +4737,7 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
@@ -4116,7 +4745,7 @@
     </row>
     <row r="79" spans="1:1" ht="172.8" x14ac:dyDescent="0.35">
       <c r="A79" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
@@ -4124,7 +4753,7 @@
     </row>
     <row r="81" spans="1:1" ht="158.4" x14ac:dyDescent="0.35">
       <c r="A81" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
@@ -4132,7 +4761,7 @@
     </row>
     <row r="83" spans="1:1" ht="100.8" x14ac:dyDescent="0.35">
       <c r="A83" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
@@ -4140,7 +4769,7 @@
     </row>
     <row r="85" spans="1:1" ht="100.8" x14ac:dyDescent="0.35">
       <c r="A85" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4198,232 +4827,232 @@
     </row>
     <row r="12" spans="1:4" ht="42" x14ac:dyDescent="0.5">
       <c r="A12" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="84" x14ac:dyDescent="0.5">
       <c r="A13" s="41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="126" x14ac:dyDescent="0.5">
       <c r="A15" s="39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="42" x14ac:dyDescent="0.5">
       <c r="A16" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="84" x14ac:dyDescent="0.5">
       <c r="A17" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A18" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="168" x14ac:dyDescent="0.5">
       <c r="A20" s="39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A21" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A22" s="41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="168" x14ac:dyDescent="0.5">
       <c r="A24" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A25" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A26" s="41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="189" x14ac:dyDescent="0.5">
       <c r="A28" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A29" s="42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="84" x14ac:dyDescent="0.5">
       <c r="A30" s="41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="126" x14ac:dyDescent="0.5">
       <c r="A32" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A33" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="126" x14ac:dyDescent="0.5">
       <c r="A34" s="41" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="168" x14ac:dyDescent="0.5">
       <c r="A36" s="39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A38" s="41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="210" x14ac:dyDescent="0.5">
       <c r="A40" s="39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A41" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="84" x14ac:dyDescent="0.5">
       <c r="A42" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="105" x14ac:dyDescent="0.5">
       <c r="A44" s="39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A45" s="40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="84" x14ac:dyDescent="0.5">
       <c r="A46" s="41" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="147" x14ac:dyDescent="0.5">
       <c r="A48" s="39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A49" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="105" x14ac:dyDescent="0.5">
       <c r="A50" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="126" x14ac:dyDescent="0.5">
       <c r="A51" s="44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="84" x14ac:dyDescent="0.5">
       <c r="A52" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A53" s="45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="42" x14ac:dyDescent="0.5">
       <c r="A55" s="44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="63" x14ac:dyDescent="0.5">
       <c r="A56" s="44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="126" x14ac:dyDescent="0.5">
       <c r="A57" s="45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4434,10 +5063,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC38FCF-4571-4676-8A21-161EB66D2481}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4487,6 +5116,144 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="297" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="193.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="207" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="108" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
